--- a/Censo Poblacional empleo y desempleo 2001 y 2013.xlsx
+++ b/Censo Poblacional empleo y desempleo 2001 y 2013.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Inestroza\Desktop\Base de Datos sobre empleo y desempleo 2001 y 2013\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Inestroza\Documents\GitHub\Proyecto_investigacion_semiario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ED0F95-31A7-4847-8DD0-291C714E753E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1C6C3D-9190-44B0-ADC4-F295C24D7992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE DE DATOS 2001 Y 2013 MUNIC" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="729">
   <si>
     <t>Año</t>
   </si>
@@ -1855,18 +1855,6 @@
     <t xml:space="preserve">Poblacion activa = </t>
   </si>
   <si>
-    <t xml:space="preserve">Poblacion en edad de trabajar = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poblacion inactiva = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poblacion ocupada = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poblacion desocupada = </t>
-  </si>
-  <si>
     <t>PO+PD =</t>
   </si>
   <si>
@@ -1936,12 +1924,6 @@
     <t>P(d)=</t>
   </si>
   <si>
-    <t>T(d)=</t>
-  </si>
-  <si>
-    <t>a=</t>
-  </si>
-  <si>
     <t xml:space="preserve">la nueva poblacion activa </t>
   </si>
   <si>
@@ -1954,9 +1936,6 @@
     <t xml:space="preserve">Tabla 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">Tabla 2 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Poblacion en edad de trabajar </t>
   </si>
   <si>
@@ -2192,6 +2171,51 @@
   </si>
   <si>
     <t xml:space="preserve">tabla </t>
+  </si>
+  <si>
+    <t>Columna2</t>
+  </si>
+  <si>
+    <t>Columna3</t>
+  </si>
+  <si>
+    <t>Tabla 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">covarianza ocupados H y M </t>
+  </si>
+  <si>
+    <t>Nota:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">para un tiempo t_i y t_j y con media distinta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">de cero por lo que no cumple con la </t>
+  </si>
+  <si>
+    <t xml:space="preserve">definicion de ruido blanco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La covarianza cov(E_ti , E_tj) es distinta de cero </t>
+  </si>
+  <si>
+    <t>por otra parte verificamos si es caminata aleato-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ria sin deriva: y como no es un ruido blanco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">por tanto no podemos encontrar un </t>
+  </si>
+  <si>
+    <t xml:space="preserve">termino de error entonces no es una caminata aleatoria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coeficiente de correlacio H y M </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covarianza ocupados H y M </t>
   </si>
 </sst>
 </file>
@@ -2356,7 +2380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2378,7 +2402,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -2393,6 +2416,21 @@
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2405,28 +2443,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2442,6 +2462,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2463,11 +2495,53 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6583364C-263F-4AE2-8EE4-80FE8D7FDAD5}" name="Tabla710" displayName="Tabla710" ref="O23:O31" totalsRowShown="0">
+  <autoFilter ref="O23:O31" xr:uid="{6583364C-263F-4AE2-8EE4-80FE8D7FDAD5}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{82464912-E347-4C36-A7EE-0E2D0BC07B2B}" name="Nota:"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3D1C2D3A-34AA-49DA-947F-5D492D71C4D7}" name="Tabla7" displayName="Tabla7" ref="O23:O31" totalsRowShown="0">
+  <autoFilter ref="O23:O31" xr:uid="{3D1C2D3A-34AA-49DA-947F-5D492D71C4D7}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{FD67344C-8FDB-4795-AC09-6915F8FA2F17}" name="Nota:"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7A20DEAD-63B5-45D0-8488-E2CA23095689}" name="Tabla1" displayName="Tabla1" ref="D36:F44" totalsRowShown="0">
+  <autoFilter ref="D36:F44" xr:uid="{7A20DEAD-63B5-45D0-8488-E2CA23095689}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{991B1751-6E22-489D-B8FD-8E82322D0446}" name="Tabla 2"/>
+    <tableColumn id="2" xr3:uid="{BA84EED6-2273-451E-834E-D55210C49CF4}" name="Columna2" dataCellStyle="Millares"/>
+    <tableColumn id="3" xr3:uid="{58DDBBAA-6EB2-4CA7-B831-6D317B0D158B}" name="Columna3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6AFC5B4A-B1E0-476D-A1FF-6B3C44C4236E}" name="Tabla14" displayName="Tabla14" ref="C36:D44" totalsRowShown="0">
   <autoFilter ref="C36:D44" xr:uid="{6AFC5B4A-B1E0-476D-A1FF-6B3C44C4236E}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B2DC37E5-72B5-4789-BCD7-1934C3692FB5}" name="Tabla 1"/>
     <tableColumn id="2" xr3:uid="{2D2708A7-37B8-405B-B5FC-D1951006DA2A}" name="tabla "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C51BE993-D913-478A-958C-947D9D543867}" name="Tabla6" displayName="Tabla6" ref="E41:E44" totalsRowShown="0">
+  <autoFilter ref="E41:E44" xr:uid="{C51BE993-D913-478A-958C-947D9D543867}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{ECC6ADB7-98BE-432E-B528-FAB6ED0523E8}" name="%"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2755,55 +2829,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="41" t="s">
         <v>540</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="34" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="38" t="s">
         <v>544</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="34" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="38" t="s">
         <v>545</v>
       </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="34" t="s">
+      <c r="K1" s="38"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="38" t="s">
         <v>546</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="34" t="s">
+      <c r="N1" s="38"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="38" t="s">
         <v>547</v>
       </c>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="34" t="s">
+      <c r="Q1" s="38"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="38" t="s">
         <v>548</v>
       </c>
-      <c r="T1" s="34"/>
-      <c r="U1" s="35"/>
-      <c r="W1" s="38" t="s">
+      <c r="T1" s="38"/>
+      <c r="U1" s="39"/>
+      <c r="W1" s="37" t="s">
         <v>591</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="1" t="s">
         <v>541</v>
       </c>
@@ -3089,11 +3163,11 @@
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="W5" s="38" t="s">
+      <c r="W5" s="37" t="s">
         <v>573</v>
       </c>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -3467,11 +3541,11 @@
         <f t="shared" si="5"/>
         <v>874</v>
       </c>
-      <c r="W10" s="38" t="s">
+      <c r="W10" s="37" t="s">
         <v>574</v>
       </c>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
@@ -3833,11 +3907,11 @@
         <f t="shared" si="5"/>
         <v>1117</v>
       </c>
-      <c r="W15" s="38" t="s">
+      <c r="W15" s="37" t="s">
         <v>575</v>
       </c>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -4211,11 +4285,11 @@
         <f t="shared" si="5"/>
         <v>3325</v>
       </c>
-      <c r="W20" s="38" t="s">
+      <c r="W20" s="37" t="s">
         <v>576</v>
       </c>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -4506,11 +4580,11 @@
         <f t="shared" si="5"/>
         <v>696</v>
       </c>
-      <c r="W24" s="38" t="s">
+      <c r="W24" s="37" t="s">
         <v>577</v>
       </c>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="38"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -4884,11 +4958,11 @@
         <f t="shared" si="5"/>
         <v>502</v>
       </c>
-      <c r="W29" s="38" t="s">
+      <c r="W29" s="37" t="s">
         <v>578</v>
       </c>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="38"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -5262,11 +5336,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W34" s="38" t="s">
+      <c r="W34" s="37" t="s">
         <v>579</v>
       </c>
-      <c r="X34" s="38"/>
-      <c r="Y34" s="38"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -5640,11 +5714,11 @@
         <f t="shared" si="5"/>
         <v>161</v>
       </c>
-      <c r="W39" s="38" t="s">
+      <c r="W39" s="37" t="s">
         <v>580</v>
       </c>
-      <c r="X39" s="38"/>
-      <c r="Y39" s="38"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="37"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -6006,11 +6080,11 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
-      <c r="W44" s="38" t="s">
+      <c r="W44" s="37" t="s">
         <v>581</v>
       </c>
-      <c r="X44" s="38"/>
-      <c r="Y44" s="38"/>
+      <c r="X44" s="37"/>
+      <c r="Y44" s="37"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -6384,11 +6458,11 @@
         <f t="shared" si="5"/>
         <v>608</v>
       </c>
-      <c r="W49" s="38" t="s">
+      <c r="W49" s="37" t="s">
         <v>582</v>
       </c>
-      <c r="X49" s="38"/>
-      <c r="Y49" s="38"/>
+      <c r="X49" s="37"/>
+      <c r="Y49" s="37"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -6762,11 +6836,11 @@
         <f t="shared" si="5"/>
         <v>1725</v>
       </c>
-      <c r="W54" s="38" t="s">
+      <c r="W54" s="37" t="s">
         <v>583</v>
       </c>
-      <c r="X54" s="38"/>
-      <c r="Y54" s="38"/>
+      <c r="X54" s="37"/>
+      <c r="Y54" s="37"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -7140,11 +7214,11 @@
         <f t="shared" si="5"/>
         <v>712</v>
       </c>
-      <c r="W59" s="38" t="s">
+      <c r="W59" s="37" t="s">
         <v>584</v>
       </c>
-      <c r="X59" s="38"/>
-      <c r="Y59" s="38"/>
+      <c r="X59" s="37"/>
+      <c r="Y59" s="37"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -7518,11 +7592,11 @@
         <f t="shared" si="5"/>
         <v>92</v>
       </c>
-      <c r="W64" s="38" t="s">
+      <c r="W64" s="37" t="s">
         <v>585</v>
       </c>
-      <c r="X64" s="38"/>
-      <c r="Y64" s="38"/>
+      <c r="X64" s="37"/>
+      <c r="Y64" s="37"/>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
@@ -7884,11 +7958,11 @@
         <f t="shared" si="5"/>
         <v>45217</v>
       </c>
-      <c r="W69" s="38" t="s">
+      <c r="W69" s="37" t="s">
         <v>586</v>
       </c>
-      <c r="X69" s="38"/>
-      <c r="Y69" s="38"/>
+      <c r="X69" s="37"/>
+      <c r="Y69" s="37"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
@@ -8262,11 +8336,11 @@
         <f t="shared" si="15"/>
         <v>3591</v>
       </c>
-      <c r="W74" s="38" t="s">
+      <c r="W74" s="37" t="s">
         <v>587</v>
       </c>
-      <c r="X74" s="38"/>
-      <c r="Y74" s="38"/>
+      <c r="X74" s="37"/>
+      <c r="Y74" s="37"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75">
@@ -8640,11 +8714,11 @@
         <f t="shared" si="15"/>
         <v>11511</v>
       </c>
-      <c r="W79" s="38" t="s">
+      <c r="W79" s="37" t="s">
         <v>588</v>
       </c>
-      <c r="X79" s="38"/>
-      <c r="Y79" s="38"/>
+      <c r="X79" s="37"/>
+      <c r="Y79" s="37"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80">
@@ -8935,11 +9009,11 @@
         <f t="shared" si="15"/>
         <v>12</v>
       </c>
-      <c r="W83" s="38" t="s">
+      <c r="W83" s="37" t="s">
         <v>589</v>
       </c>
-      <c r="X83" s="38"/>
-      <c r="Y83" s="38"/>
+      <c r="X83" s="37"/>
+      <c r="Y83" s="37"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
@@ -47744,24 +47818,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="W74:Y74"/>
-    <mergeCell ref="W79:Y79"/>
-    <mergeCell ref="W83:Y83"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="W54:Y54"/>
-    <mergeCell ref="W59:Y59"/>
-    <mergeCell ref="W64:Y64"/>
-    <mergeCell ref="W69:Y69"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="W20:Y20"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:U1"/>
@@ -47771,6 +47827,24 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="W74:Y74"/>
+    <mergeCell ref="W79:Y79"/>
+    <mergeCell ref="W83:Y83"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="W54:Y54"/>
+    <mergeCell ref="W59:Y59"/>
+    <mergeCell ref="W64:Y64"/>
+    <mergeCell ref="W69:Y69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47778,10 +47852,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9444513-4619-48E8-BA10-92D760C4D8A9}">
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47793,7 +47867,7 @@
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" customWidth="1"/>
+    <col min="15" max="15" width="55.140625" customWidth="1"/>
     <col min="16" max="16" width="28.140625" customWidth="1"/>
     <col min="17" max="17" width="19.85546875" customWidth="1"/>
     <col min="18" max="18" width="20.5703125" customWidth="1"/>
@@ -47805,65 +47879,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>550</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>551</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="41" t="s">
         <v>540</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="34" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="38" t="s">
         <v>544</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="34" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="38" t="s">
         <v>545</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="34" t="s">
+      <c r="J2" s="38"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="38" t="s">
         <v>546</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="20" t="s">
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="19" t="s">
+        <v>651</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>647</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="T2" s="22" t="s">
         <v>658</v>
       </c>
-      <c r="P2" s="20" t="s">
-        <v>660</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>654</v>
-      </c>
-      <c r="R2" s="23" t="s">
-        <v>663</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>664</v>
-      </c>
-      <c r="T2" s="23" t="s">
-        <v>665</v>
-      </c>
-      <c r="U2" s="26" t="s">
-        <v>676</v>
-      </c>
-      <c r="V2" s="26" t="s">
-        <v>677</v>
-      </c>
-      <c r="W2" s="26" t="s">
-        <v>678</v>
+      <c r="U2" s="25" t="s">
+        <v>669</v>
+      </c>
+      <c r="V2" s="25" t="s">
+        <v>670</v>
+      </c>
+      <c r="W2" s="25" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -47903,39 +47977,39 @@
       <c r="N3" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="20">
         <f>_xlfn.VAR.S(F4:H21)</f>
         <v>11982116658.313066</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="20">
         <f>STDEV(F4:H21)</f>
         <v>109462.85515330333</v>
       </c>
-      <c r="Q3" s="22">
+      <c r="Q3" s="21">
         <f>AVERAGE(F4:H21)</f>
         <v>95413.370370370365</v>
       </c>
-      <c r="R3" s="24">
+      <c r="R3" s="23">
         <f>_xlfn.VAR.S(I4:K21)</f>
         <v>13258976.025157232</v>
       </c>
-      <c r="S3" s="24">
+      <c r="S3" s="23">
         <f>STDEVA(I4:K21)</f>
         <v>3641.2876877771182</v>
       </c>
-      <c r="T3" s="25">
+      <c r="T3" s="24">
         <f>AVERAGE(I4:K21)</f>
         <v>2291.5555555555557</v>
       </c>
-      <c r="U3" s="27">
+      <c r="U3" s="26">
         <f>_xlfn.VAR.S(L4:N21)</f>
         <v>30640466492.635918</v>
       </c>
-      <c r="V3" s="27">
+      <c r="V3" s="26">
         <f>STDEVA(L4:N21)</f>
         <v>175044.18440107035</v>
       </c>
-      <c r="W3" s="28">
+      <c r="W3" s="27">
         <f>AVERAGE(L4:N21)</f>
         <v>173877.07407407407</v>
       </c>
@@ -48028,31 +48102,31 @@
         <v>181585</v>
       </c>
       <c r="O5" t="s">
+        <v>652</v>
+      </c>
+      <c r="P5" t="s">
         <v>659</v>
       </c>
-      <c r="P5" t="s">
-        <v>666</v>
-      </c>
       <c r="Q5" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="R5" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="S5" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="T5" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="U5" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="V5" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="W5" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -48223,31 +48297,31 @@
         <v>861169</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="P8" t="s">
+        <v>655</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>649</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="Q8" t="s">
-        <v>656</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>669</v>
-      </c>
       <c r="S8" s="2" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -48418,31 +48492,31 @@
         <v>814466</v>
       </c>
       <c r="O11" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="P11" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="Q11" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="R11" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="S11" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="T11" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="U11" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="V11" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="W11" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -48612,7 +48686,9 @@
       <c r="N14" s="2">
         <v>33407</v>
       </c>
-      <c r="O14" s="2"/>
+      <c r="O14" s="29" t="s">
+        <v>727</v>
+      </c>
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -48658,7 +48734,10 @@
       <c r="N15" s="2">
         <v>112906</v>
       </c>
-      <c r="O15" s="2"/>
+      <c r="O15" s="2">
+        <f>CORREL(F4:F21,G4:G21)</f>
+        <v>0.96293033080378065</v>
+      </c>
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -48750,7 +48829,9 @@
       <c r="N17" s="2">
         <v>78911</v>
       </c>
-      <c r="O17" s="2"/>
+      <c r="O17" s="29" t="s">
+        <v>728</v>
+      </c>
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -48796,7 +48877,10 @@
       <c r="N18" s="2">
         <v>303912</v>
       </c>
-      <c r="O18" s="2"/>
+      <c r="O18" s="2">
+        <f>_xlfn.COVARIANCE.S(F4:F21,G4:G21)</f>
+        <v>4547813936.8627453</v>
+      </c>
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -48995,12 +49079,51 @@
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O23" s="2"/>
+      <c r="O23" t="s">
+        <v>718</v>
+      </c>
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O24" s="2"/>
+      <c r="O24" t="s">
+        <v>722</v>
+      </c>
       <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O27" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O28" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O29" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O30" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O31" t="s">
+        <v>726</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -49011,15 +49134,18 @@
     <mergeCell ref="L2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85591A2D-7069-40DB-9539-955946B74862}">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23:O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49031,7 +49157,7 @@
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.28515625" customWidth="1"/>
+    <col min="15" max="15" width="52" customWidth="1"/>
     <col min="16" max="16" width="27.7109375" customWidth="1"/>
     <col min="17" max="17" width="22.85546875" customWidth="1"/>
     <col min="18" max="18" width="44.85546875" customWidth="1"/>
@@ -49043,65 +49169,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>550</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>551</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="42" t="s">
         <v>566</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42" t="s">
         <v>567</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42" t="s">
         <v>568</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42" t="s">
         <v>569</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="29" t="s">
-        <v>683</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>684</v>
-      </c>
-      <c r="Q2" s="29" t="s">
-        <v>685</v>
-      </c>
-      <c r="R2" s="23" t="s">
-        <v>663</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>693</v>
-      </c>
-      <c r="T2" s="23" t="s">
-        <v>665</v>
-      </c>
-      <c r="U2" s="26" t="s">
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="28" t="s">
         <v>676</v>
       </c>
-      <c r="V2" s="26" t="s">
-        <v>695</v>
-      </c>
-      <c r="W2" s="26" t="s">
+      <c r="P2" s="28" t="s">
+        <v>677</v>
+      </c>
+      <c r="Q2" s="28" t="s">
         <v>678</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>686</v>
+      </c>
+      <c r="T2" s="22" t="s">
+        <v>658</v>
+      </c>
+      <c r="U2" s="25" t="s">
+        <v>669</v>
+      </c>
+      <c r="V2" s="25" t="s">
+        <v>688</v>
+      </c>
+      <c r="W2" s="25" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -49141,39 +49267,39 @@
       <c r="N3" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="O3" s="30">
+      <c r="O3" s="29">
         <f>_xlfn.VAR.S(F4:H21)</f>
         <v>6314216923.5625439</v>
       </c>
-      <c r="P3" s="30">
+      <c r="P3" s="29">
         <f>STDEVA(F4:H21)</f>
         <v>79462.047063755817</v>
       </c>
-      <c r="Q3" s="31">
+      <c r="Q3" s="30">
         <f>AVERAGE(F4:H21)</f>
         <v>68398.851851851854</v>
       </c>
-      <c r="R3" s="24">
+      <c r="R3" s="23">
         <f>_xlfn.VAR.S(I4:K21)</f>
         <v>5227065.3081761003</v>
       </c>
-      <c r="S3" s="24">
+      <c r="S3" s="23">
         <f>STDEVA(I4:K21)</f>
         <v>2286.2776096038951</v>
       </c>
-      <c r="T3" s="25">
+      <c r="T3" s="24">
         <f>AVERAGE(I4:K21)</f>
         <v>1469.1111111111111</v>
       </c>
-      <c r="U3" s="27">
+      <c r="U3" s="26">
         <f>_xlfn.VAR.S(L4:N21)</f>
         <v>11936632849.461914</v>
       </c>
-      <c r="V3" s="27">
+      <c r="V3" s="26">
         <f>STDEVA(L4:N21)</f>
         <v>109254.89851472067</v>
       </c>
-      <c r="W3" s="28">
+      <c r="W3" s="27">
         <f>AVERAGE(L4:N21)</f>
         <v>109721.51851851853</v>
       </c>
@@ -49266,31 +49392,31 @@
         <v>110528</v>
       </c>
       <c r="O5" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="P5" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>679</v>
+      </c>
+      <c r="R5" t="s">
+        <v>652</v>
+      </c>
+      <c r="S5" t="s">
         <v>687</v>
       </c>
-      <c r="Q5" t="s">
-        <v>686</v>
-      </c>
-      <c r="R5" t="s">
-        <v>659</v>
-      </c>
-      <c r="S5" t="s">
-        <v>694</v>
-      </c>
       <c r="T5" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="U5" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="V5" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="W5" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -49461,31 +49587,31 @@
         <v>504277</v>
       </c>
       <c r="O8" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="P8" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="Q8" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="R8" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="S8" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="T8" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="U8" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="V8" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="W8" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -49656,31 +49782,31 @@
         <v>527937</v>
       </c>
       <c r="O11" t="s">
+        <v>683</v>
+      </c>
+      <c r="P11" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>685</v>
+      </c>
+      <c r="R11" t="s">
+        <v>666</v>
+      </c>
+      <c r="S11" t="s">
+        <v>684</v>
+      </c>
+      <c r="T11" t="s">
+        <v>665</v>
+      </c>
+      <c r="U11" t="s">
+        <v>666</v>
+      </c>
+      <c r="V11" t="s">
+        <v>689</v>
+      </c>
+      <c r="W11" t="s">
         <v>690</v>
-      </c>
-      <c r="P11" t="s">
-        <v>691</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>692</v>
-      </c>
-      <c r="R11" t="s">
-        <v>673</v>
-      </c>
-      <c r="S11" t="s">
-        <v>691</v>
-      </c>
-      <c r="T11" t="s">
-        <v>672</v>
-      </c>
-      <c r="U11" t="s">
-        <v>673</v>
-      </c>
-      <c r="V11" t="s">
-        <v>696</v>
-      </c>
-      <c r="W11" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -49850,14 +49976,14 @@
       <c r="N14" s="2">
         <v>15616</v>
       </c>
-      <c r="O14" s="29" t="s">
-        <v>716</v>
-      </c>
-      <c r="R14" s="23" t="s">
-        <v>717</v>
-      </c>
-      <c r="U14" s="26" t="s">
-        <v>718</v>
+      <c r="O14" s="28" t="s">
+        <v>709</v>
+      </c>
+      <c r="R14" s="22" t="s">
+        <v>710</v>
+      </c>
+      <c r="U14" s="25" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -49960,7 +50086,7 @@
         <v>110799</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -50003,8 +50129,11 @@
       <c r="N17" s="2">
         <v>47976</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="28" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -50047,8 +50176,12 @@
       <c r="N18" s="2">
         <v>190385</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="2">
+        <f>_xlfn.COVARIANCE.S(F4:F21,G4:G21)</f>
+        <v>2385841825.1633987</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -50092,7 +50225,7 @@
         <v>164496</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -50136,7 +50269,7 @@
         <v>77449</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -50180,7 +50313,7 @@
         <v>226769</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>590</v>
       </c>
@@ -50233,8 +50366,51 @@
         <v>2962481</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
+      <c r="O23" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O24" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O27" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O28" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O29" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O30" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O31" t="s">
+        <v>726</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -50246,573 +50422,480 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA2178D-C3AD-4559-BBBE-C65524D756B6}">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="5" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="45"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
-        <v>597</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="8"/>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="36"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="47" t="s">
-        <v>598</v>
-      </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="40" t="s">
-        <v>592</v>
-      </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="34"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="40" t="s">
-        <v>593</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
-        <v>594</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="40" t="s">
-        <v>595</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="F8" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="40" t="s">
-        <v>596</v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="48" t="s">
-        <v>614</v>
-      </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="48" t="s">
-        <v>615</v>
-      </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="46" t="s">
+        <v>611</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="40" t="s">
-        <v>599</v>
-      </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="50" t="s">
-        <v>600</v>
-      </c>
-      <c r="C12" s="50"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="46" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="44" t="s">
         <v>605</v>
       </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="40" t="s">
-        <v>602</v>
-      </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="46" t="s">
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="44" t="s">
         <v>604</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="40" t="s">
-        <v>603</v>
-      </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="46" t="s">
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="44" t="s">
         <v>606</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="43" t="s">
-        <v>629</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43" t="s">
-        <v>628</v>
-      </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="51" t="s">
+        <v>624</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11" t="s">
+        <v>608</v>
+      </c>
       <c r="G17" s="11"/>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="9"/>
+      <c r="I17" s="50" t="s">
+        <v>616</v>
+      </c>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="35"/>
+      <c r="C18" s="2">
+        <v>2638033</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>614</v>
+      </c>
+      <c r="F18" s="49"/>
+      <c r="G18" s="12">
+        <f>C23+C25</f>
+        <v>2638033</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="2">
+        <v>7332714</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13">
+        <f>(C18/G20)*100</f>
+        <v>35.976215627665283</v>
+      </c>
+      <c r="M19" s="15">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E20" s="13" t="s">
         <v>612</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="42" t="s">
+      <c r="F20" s="13" t="s">
+        <v>613</v>
+      </c>
+      <c r="G20" s="12">
+        <f>C18+C21</f>
+        <v>7332714</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="33"/>
+      <c r="C21" s="2">
+        <v>4694681</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="I21" s="50" t="s">
+        <v>618</v>
+      </c>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="33"/>
+      <c r="C23" s="2">
+        <v>2576161</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="J23" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C18" s="44" t="s">
-        <v>607</v>
-      </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="2">
+      <c r="K23" s="13"/>
+      <c r="L23" s="13">
+        <f>(C25/C18)*100</f>
+        <v>2.3453838522869126</v>
+      </c>
+      <c r="M23" s="17">
+        <v>2.3400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="33"/>
+      <c r="C25" s="2">
+        <v>61872</v>
+      </c>
+      <c r="I25" s="50" t="s">
+        <v>621</v>
+      </c>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C27" s="37" t="s">
+        <v>632</v>
+      </c>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="I27" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13">
+        <f>(C23/C18)*100</f>
+        <v>97.654616147713085</v>
+      </c>
+      <c r="M27" s="15">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C28" s="37" t="s">
+        <v>627</v>
+      </c>
+      <c r="D28" s="37"/>
+      <c r="E28" t="s">
+        <v>629</v>
+      </c>
+      <c r="F28" t="s">
+        <v>630</v>
+      </c>
+      <c r="G28" s="18">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>633</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="D30" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>628</v>
+      </c>
+      <c r="E31" s="2">
+        <f>(G28/B29)*B30</f>
+        <v>1500000</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>631</v>
+      </c>
+      <c r="G31" s="37"/>
+      <c r="I31" s="37" t="s">
+        <v>643</v>
+      </c>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>644</v>
+      </c>
+      <c r="J33">
+        <f>L27+L23</f>
+        <v>100</v>
+      </c>
+      <c r="K33" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>716</v>
+      </c>
+      <c r="E36" t="s">
+        <v>714</v>
+      </c>
+      <c r="F36" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>635</v>
+      </c>
+      <c r="E37" s="2">
+        <v>7332714</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>636</v>
+      </c>
+      <c r="E38" s="2">
         <v>2638033</v>
       </c>
-      <c r="G18" s="41" t="s">
-        <v>618</v>
-      </c>
-      <c r="H18" s="41"/>
-      <c r="I18" s="12">
-        <f>E23+E25</f>
-        <v>2638033</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="38" t="s">
-        <v>608</v>
-      </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="2">
-        <v>7332714</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>619</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>621</v>
-      </c>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13">
-        <f>(E18/I20)*100</f>
-        <v>35.976215627665283</v>
-      </c>
-      <c r="O19" s="15">
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>637</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2576161</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="14"/>
+      <c r="D40" t="s">
+        <v>638</v>
+      </c>
+      <c r="E40" s="2">
+        <v>61872</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="16"/>
+      <c r="D41" t="s">
+        <v>639</v>
+      </c>
+      <c r="E41" s="2">
+        <v>4694681</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="14"/>
+      <c r="D42" t="s">
+        <v>640</v>
+      </c>
+      <c r="E42" s="2">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C20" s="2"/>
-      <c r="G20" s="13" t="s">
-        <v>616</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>617</v>
-      </c>
-      <c r="I20" s="12">
-        <f>E18+E21</f>
-        <v>7332714</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="38" t="s">
-        <v>609</v>
-      </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="2">
-        <v>4694681</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="K21" s="42" t="s">
-        <v>622</v>
-      </c>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="38" t="s">
-        <v>610</v>
-      </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="2">
-        <v>2576161</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>624</v>
-      </c>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13">
-        <f>(E25/E18)*100</f>
-        <v>2.3453838522869126</v>
-      </c>
-      <c r="O23" s="17">
+      <c r="F42" s="14">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>641</v>
+      </c>
+      <c r="E43" s="2">
         <v>2.3400000000000001E-2</v>
       </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C25" s="38" t="s">
-        <v>611</v>
-      </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="2">
-        <v>61872</v>
-      </c>
-      <c r="K25" s="42" t="s">
-        <v>625</v>
-      </c>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>630</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>638</v>
-      </c>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="K27" s="13" t="s">
-        <v>626</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>627</v>
-      </c>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13">
-        <f>(E23/E18)*100</f>
-        <v>97.654616147713085</v>
-      </c>
-      <c r="O27" s="15">
+      <c r="F43" s="16">
+        <v>2.3400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>642</v>
+      </c>
+      <c r="E44" s="2">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E28" s="38" t="s">
-        <v>631</v>
-      </c>
-      <c r="F28" s="38"/>
-      <c r="G28" t="s">
-        <v>633</v>
-      </c>
-      <c r="H28" t="s">
-        <v>634</v>
-      </c>
-      <c r="I28" s="18">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>635</v>
-      </c>
-      <c r="D29">
-        <v>10</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>639</v>
-      </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>636</v>
-      </c>
-      <c r="D30">
-        <v>100</v>
-      </c>
-      <c r="F30" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>708</v>
-      </c>
-      <c r="F31" t="s">
-        <v>632</v>
-      </c>
-      <c r="G31" s="2">
-        <f>(I28/D29)*D30</f>
-        <v>1500000</v>
-      </c>
-      <c r="H31" s="38" t="s">
-        <v>637</v>
-      </c>
-      <c r="I31" s="38"/>
-      <c r="K31" s="38" t="s">
-        <v>650</v>
-      </c>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K33" t="s">
-        <v>651</v>
-      </c>
-      <c r="L33">
-        <f>N27+N23</f>
-        <v>100</v>
-      </c>
-      <c r="M33" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="C35" s="19">
-        <v>7332714</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="C36" s="19">
-        <v>2638033</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="C37" s="19">
-        <v>2576161</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="C38" s="19">
-        <v>61872</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="C39" s="19">
-        <v>4694681</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="D40" s="14">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="C41" s="1">
-        <v>2.3400000000000001E-2</v>
-      </c>
-      <c r="D41" s="16">
-        <v>2.3400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C42" s="1">
+      <c r="F44" s="14">
         <v>0.97</v>
       </c>
-      <c r="D42" s="14">
-        <v>0.97</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
+  <mergeCells count="17">
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:D4"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="K31:M31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -50820,8 +50903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70861295-509C-42F1-98A7-F27B15B0F558}">
   <dimension ref="B2:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView topLeftCell="D20" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50837,16 +50920,16 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="45" t="s">
         <v>597</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="8"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -50854,24 +50937,24 @@
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="45" t="s">
         <v>598</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="43" t="s">
         <v>592</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="9"/>
@@ -50880,10 +50963,10 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="43" t="s">
         <v>593</v>
       </c>
-      <c r="C6" s="40"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="7"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -50893,10 +50976,10 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="43" t="s">
         <v>594</v>
       </c>
-      <c r="C7" s="40"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="7"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -50906,13 +50989,13 @@
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="43" t="s">
         <v>595</v>
       </c>
-      <c r="C8" s="40"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="7"/>
       <c r="E8" s="1" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="9"/>
@@ -50921,12 +51004,12 @@
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="43" t="s">
         <v>596</v>
       </c>
-      <c r="C9" s="40"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -50936,14 +51019,14 @@
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="48" t="s">
-        <v>614</v>
-      </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="32" t="s">
-        <v>615</v>
-      </c>
-      <c r="E10" s="33"/>
+      <c r="B10" s="46" t="s">
+        <v>610</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="E10" s="32"/>
       <c r="F10" s="1"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -50951,10 +51034,10 @@
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="43" t="s">
         <v>599</v>
       </c>
-      <c r="C11" s="40"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="7"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -50964,10 +51047,10 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="48" t="s">
         <v>600</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -50981,80 +51064,80 @@
         <v>601</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="44" t="s">
         <v>605</v>
       </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="43" t="s">
         <v>602</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="46" t="s">
+      <c r="C14" s="43"/>
+      <c r="D14" s="44" t="s">
         <v>604</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="43" t="s">
         <v>603</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="46" t="s">
+      <c r="C15" s="43"/>
+      <c r="D15" s="44" t="s">
         <v>606</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="43" t="s">
-        <v>629</v>
-      </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43" t="s">
-        <v>628</v>
-      </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="L16" s="42" t="s">
-        <v>703</v>
-      </c>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
+      <c r="B16" s="51" t="s">
+        <v>625</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51" t="s">
+        <v>624</v>
+      </c>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="L16" s="50" t="s">
+        <v>696</v>
+      </c>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="H18" s="4">
         <f>E21+E23</f>
         <v>1886435</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="N18" s="13"/>
       <c r="O18" s="13">
@@ -51066,10 +51149,10 @@
       </c>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="52" t="s">
         <v>607</v>
       </c>
-      <c r="E19" s="44"/>
+      <c r="E19" s="52"/>
       <c r="F19" s="4">
         <f>E21+E23</f>
         <v>1886435</v>
@@ -51077,22 +51160,22 @@
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="H20" s="4">
         <f>F19+E25</f>
         <v>4848916</v>
       </c>
-      <c r="L20" s="42" t="s">
-        <v>705</v>
-      </c>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
+      <c r="L20" s="50" t="s">
+        <v>698</v>
+      </c>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="E21" s="2">
         <v>1846769</v>
@@ -51100,10 +51183,10 @@
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.25">
       <c r="L22" s="13" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="N22" s="13"/>
       <c r="O22" s="13">
@@ -51116,23 +51199,23 @@
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="E23" s="2">
         <v>39666</v>
       </c>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="L24" s="20" t="s">
-        <v>706</v>
-      </c>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
+      <c r="L24" s="19" t="s">
+        <v>699</v>
+      </c>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="E25" s="2">
         <v>2962481</v>
@@ -51140,10 +51223,10 @@
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.25">
       <c r="L26" s="13" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="N26" s="13"/>
       <c r="O26" s="13">
@@ -51156,74 +51239,87 @@
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="E27" s="2">
         <v>4848916</v>
       </c>
     </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>643</v>
+      </c>
+    </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="F30" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="H31" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="I31" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="J31" s="18">
         <v>130000</v>
       </c>
+      <c r="L31" t="s">
+        <v>644</v>
+      </c>
+      <c r="M31" s="14">
+        <f>P26+P22</f>
+        <v>1</v>
+      </c>
+      <c r="N31" s="14"/>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="F33" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="H35" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="D36" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="D37" s="2">
         <v>4848916</v>
@@ -51231,7 +51327,7 @@
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="D38" s="2">
         <v>1886435</v>
@@ -51239,7 +51335,7 @@
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="D39" s="2">
         <v>1846769</v>
@@ -51247,7 +51343,7 @@
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="D40" s="2">
         <v>39666</v>
@@ -51255,49 +51351,50 @@
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="D41" s="2">
         <v>2962481</v>
       </c>
+      <c r="E41" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="D42" s="2">
         <v>38.904262313473772</v>
       </c>
+      <c r="E42" s="14">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="D43" s="2">
         <v>2.102696355824611</v>
       </c>
+      <c r="E43" s="14">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="D44" s="2">
         <v>97.897303644175395</v>
       </c>
+      <c r="E44" s="14">
+        <v>0.98</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D13:J13"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="L16:O16"/>
     <mergeCell ref="L20:O20"/>
@@ -51307,10 +51404,22 @@
     <mergeCell ref="D15:J15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:J16"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>